--- a/STOCK/1test/test_crawler/stock_bot_prototype/result.xlsx
+++ b/STOCK/1test/test_crawler/stock_bot_prototype/result.xlsx
@@ -458,18 +458,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>65100</v>
+        <v>65500</v>
       </c>
       <c r="D2" t="n">
         <v>5969782550</v>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-										388조
-											6328
-								</t>
-        </is>
+      <c r="E2" t="n">
+        <v>391020757025000</v>
       </c>
     </row>
     <row r="3">
@@ -482,18 +477,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1660</v>
+        <v>1492</v>
       </c>
       <c r="D3" t="n">
         <v>1244473009</v>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-										2조
-											658
-								</t>
-        </is>
+      <c r="E3" t="n">
+        <v>1856753729428</v>
       </c>
     </row>
     <row r="4">
@@ -506,17 +496,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4145</v>
+        <v>4080</v>
       </c>
       <c r="D4" t="n">
         <v>14075750</v>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-										583
-								</t>
-        </is>
+      <c r="E4" t="n">
+        <v>57429060000</v>
       </c>
     </row>
     <row r="5">
@@ -529,17 +515,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>12230</v>
+        <v>12180</v>
       </c>
       <c r="D5" t="n">
         <v>10000000</v>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-										1223
-								</t>
-        </is>
+      <c r="E5" t="n">
+        <v>121800000000</v>
       </c>
     </row>
     <row r="6">
@@ -552,17 +534,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>45350</v>
+        <v>31400</v>
       </c>
       <c r="D6" t="n">
         <v>5878672</v>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-										2666
-								</t>
-        </is>
+      <c r="E6" t="n">
+        <v>184590300800</v>
       </c>
     </row>
     <row r="7">
@@ -575,17 +553,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>14505</v>
+        <v>13880</v>
       </c>
       <c r="D7" t="n">
-        <v>16750</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-											87
-								</t>
-        </is>
+        <v>15435</v>
+      </c>
+      <c r="E7" t="n">
+        <v>214237800</v>
       </c>
     </row>
     <row r="8">
@@ -598,17 +572,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>8710</v>
+        <v>6770</v>
       </c>
       <c r="D8" t="n">
         <v>18308101</v>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-										1595
-								</t>
-        </is>
+      <c r="E8" t="n">
+        <v>123945843770</v>
       </c>
     </row>
     <row r="9">
@@ -621,17 +591,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>6130</v>
+        <v>5765</v>
       </c>
       <c r="D9" t="n">
-        <v>7205</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-											144
-								</t>
-        </is>
+        <v>7100</v>
+      </c>
+      <c r="E9" t="n">
+        <v>40931500</v>
       </c>
     </row>
     <row r="10">
@@ -644,17 +610,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>104520</v>
+        <v>104260</v>
       </c>
       <c r="D10" t="n">
         <v>105350</v>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-											593
-								</t>
-        </is>
+      <c r="E10" t="n">
+        <v>10983791000</v>
       </c>
     </row>
     <row r="11">
@@ -669,17 +631,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>26900</v>
+        <v>24950</v>
       </c>
       <c r="D11" t="n">
         <v>536766</v>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-										144
-								</t>
-        </is>
+      <c r="E11" t="n">
+        <v>13392311700</v>
       </c>
     </row>
     <row r="12">
@@ -694,17 +652,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>153800</v>
+        <v>147600</v>
       </c>
       <c r="D12" t="n">
         <v>566135</v>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-										871
-								</t>
-        </is>
+      <c r="E12" t="n">
+        <v>83561526000</v>
       </c>
     </row>
   </sheetData>
